--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il15-Il2rg.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il15-Il2rg.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.81406849548705</v>
+        <v>6.815237</v>
       </c>
       <c r="H2">
-        <v>6.81406849548705</v>
+        <v>20.445711</v>
       </c>
       <c r="I2">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="J2">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.24596085381</v>
+        <v>49.22961066666667</v>
       </c>
       <c r="N2">
-        <v>48.24596085381</v>
+        <v>147.688832</v>
       </c>
       <c r="O2">
-        <v>0.310976124699498</v>
+        <v>0.31191911390397</v>
       </c>
       <c r="P2">
-        <v>0.310976124699498</v>
+        <v>0.31191911390397</v>
       </c>
       <c r="Q2">
-        <v>328.7512818884482</v>
+        <v>335.5114641110613</v>
       </c>
       <c r="R2">
-        <v>328.7512818884482</v>
+        <v>3019.603176999552</v>
       </c>
       <c r="S2">
-        <v>0.07701827280886048</v>
+        <v>0.07418791370035771</v>
       </c>
       <c r="T2">
-        <v>0.07701827280886048</v>
+        <v>0.07418791370035772</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.81406849548705</v>
+        <v>6.815237</v>
       </c>
       <c r="H3">
-        <v>6.81406849548705</v>
+        <v>20.445711</v>
       </c>
       <c r="I3">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="J3">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.76626323450665</v>
+        <v>3.113353333333333</v>
       </c>
       <c r="N3">
-        <v>2.76626323450665</v>
+        <v>9.340059999999999</v>
       </c>
       <c r="O3">
-        <v>0.01783033865098457</v>
+        <v>0.01972622573797533</v>
       </c>
       <c r="P3">
-        <v>0.01783033865098457</v>
+        <v>0.01972622573797533</v>
       </c>
       <c r="Q3">
-        <v>18.84950715647587</v>
+        <v>21.21824083140666</v>
       </c>
       <c r="R3">
-        <v>18.84950715647587</v>
+        <v>190.96416748266</v>
       </c>
       <c r="S3">
-        <v>0.004415972087319909</v>
+        <v>0.004691753302214233</v>
       </c>
       <c r="T3">
-        <v>0.004415972087319909</v>
+        <v>0.004691753302214234</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.81406849548705</v>
+        <v>6.815237</v>
       </c>
       <c r="H4">
-        <v>6.81406849548705</v>
+        <v>20.445711</v>
       </c>
       <c r="I4">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="J4">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.1411567013993</v>
+        <v>45.92553333333333</v>
       </c>
       <c r="N4">
-        <v>45.1411567013993</v>
+        <v>137.7766</v>
       </c>
       <c r="O4">
-        <v>0.2909636729588599</v>
+        <v>0.2909844597369537</v>
       </c>
       <c r="P4">
-        <v>0.2909636729588599</v>
+        <v>0.2909844597369537</v>
       </c>
       <c r="Q4">
-        <v>307.5949337288491</v>
+        <v>312.9933940180667</v>
       </c>
       <c r="R4">
-        <v>307.5949337288491</v>
+        <v>2816.9405461626</v>
       </c>
       <c r="S4">
-        <v>0.07206186508069795</v>
+        <v>0.06920874362882568</v>
       </c>
       <c r="T4">
-        <v>0.07206186508069795</v>
+        <v>0.06920874362882569</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.81406849548705</v>
+        <v>6.815237</v>
       </c>
       <c r="H5">
-        <v>6.81406849548705</v>
+        <v>20.445711</v>
       </c>
       <c r="I5">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="J5">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.8700247939244</v>
+        <v>57.27783200000001</v>
       </c>
       <c r="N5">
-        <v>56.8700247939244</v>
+        <v>171.833496</v>
       </c>
       <c r="O5">
-        <v>0.3665637414822545</v>
+        <v>0.3629126934346761</v>
       </c>
       <c r="P5">
-        <v>0.3665637414822545</v>
+        <v>0.3629126934346762</v>
       </c>
       <c r="Q5">
-        <v>387.5162442858477</v>
+        <v>390.3619999261841</v>
       </c>
       <c r="R5">
-        <v>387.5162442858477</v>
+        <v>3513.257999335656</v>
       </c>
       <c r="S5">
-        <v>0.09078544621584081</v>
+        <v>0.08631640185277357</v>
       </c>
       <c r="T5">
-        <v>0.09078544621584081</v>
+        <v>0.08631640185277359</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.81406849548705</v>
+        <v>6.815237</v>
       </c>
       <c r="H6">
-        <v>6.81406849548705</v>
+        <v>20.445711</v>
       </c>
       <c r="I6">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="J6">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.12021163273267</v>
+        <v>2.281801333333334</v>
       </c>
       <c r="N6">
-        <v>2.12021163273267</v>
+        <v>6.845404</v>
       </c>
       <c r="O6">
-        <v>0.01366612220840314</v>
+        <v>0.01445750718642485</v>
       </c>
       <c r="P6">
-        <v>0.01366612220840314</v>
+        <v>0.01445750718642485</v>
       </c>
       <c r="Q6">
-        <v>14.44726729036885</v>
+        <v>15.55101687358267</v>
       </c>
       <c r="R6">
-        <v>14.44726729036885</v>
+        <v>139.959151862244</v>
       </c>
       <c r="S6">
-        <v>0.003384636455622146</v>
+        <v>0.003438623180363994</v>
       </c>
       <c r="T6">
-        <v>0.003384636455622146</v>
+        <v>0.003438623180363994</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.58296203432592</v>
+        <v>2.660570666666667</v>
       </c>
       <c r="H7">
-        <v>2.58296203432592</v>
+        <v>7.981712</v>
       </c>
       <c r="I7">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="J7">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>48.24596085381</v>
+        <v>49.22961066666667</v>
       </c>
       <c r="N7">
-        <v>48.24596085381</v>
+        <v>147.688832</v>
       </c>
       <c r="O7">
-        <v>0.310976124699498</v>
+        <v>0.31191911390397</v>
       </c>
       <c r="P7">
-        <v>0.310976124699498</v>
+        <v>0.31191911390397</v>
       </c>
       <c r="Q7">
-        <v>124.6174851949658</v>
+        <v>130.9788580711538</v>
       </c>
       <c r="R7">
-        <v>124.6174851949658</v>
+        <v>1178.809722640384</v>
       </c>
       <c r="S7">
-        <v>0.02919478645487604</v>
+        <v>0.02896189626455688</v>
       </c>
       <c r="T7">
-        <v>0.02919478645487604</v>
+        <v>0.02896189626455689</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.58296203432592</v>
+        <v>2.660570666666667</v>
       </c>
       <c r="H8">
-        <v>2.58296203432592</v>
+        <v>7.981712</v>
       </c>
       <c r="I8">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="J8">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.76626323450665</v>
+        <v>3.113353333333333</v>
       </c>
       <c r="N8">
-        <v>2.76626323450665</v>
+        <v>9.340059999999999</v>
       </c>
       <c r="O8">
-        <v>0.01783033865098457</v>
+        <v>0.01972622573797533</v>
       </c>
       <c r="P8">
-        <v>0.01783033865098457</v>
+        <v>0.01972622573797533</v>
       </c>
       <c r="Q8">
-        <v>7.145152911682296</v>
+        <v>8.283296553635555</v>
       </c>
       <c r="R8">
-        <v>7.145152911682296</v>
+        <v>74.54966898271999</v>
       </c>
       <c r="S8">
-        <v>0.001673932138155741</v>
+        <v>0.001831593121575619</v>
       </c>
       <c r="T8">
-        <v>0.001673932138155741</v>
+        <v>0.001831593121575619</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.58296203432592</v>
+        <v>2.660570666666667</v>
       </c>
       <c r="H9">
-        <v>2.58296203432592</v>
+        <v>7.981712</v>
       </c>
       <c r="I9">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="J9">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.1411567013993</v>
+        <v>45.92553333333333</v>
       </c>
       <c r="N9">
-        <v>45.1411567013993</v>
+        <v>137.7766</v>
       </c>
       <c r="O9">
-        <v>0.2909636729588599</v>
+        <v>0.2909844597369537</v>
       </c>
       <c r="P9">
-        <v>0.2909636729588599</v>
+        <v>0.2909844597369537</v>
       </c>
       <c r="Q9">
-        <v>116.5978939452715</v>
+        <v>122.1881268376889</v>
       </c>
       <c r="R9">
-        <v>116.5978939452715</v>
+        <v>1099.6931415392</v>
       </c>
       <c r="S9">
-        <v>0.02731599509888039</v>
+        <v>0.02701809976317877</v>
       </c>
       <c r="T9">
-        <v>0.02731599509888039</v>
+        <v>0.02701809976317877</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.58296203432592</v>
+        <v>2.660570666666667</v>
       </c>
       <c r="H10">
-        <v>2.58296203432592</v>
+        <v>7.981712</v>
       </c>
       <c r="I10">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="J10">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.8700247939244</v>
+        <v>57.27783200000001</v>
       </c>
       <c r="N10">
-        <v>56.8700247939244</v>
+        <v>171.833496</v>
       </c>
       <c r="O10">
-        <v>0.3665637414822545</v>
+        <v>0.3629126934346761</v>
       </c>
       <c r="P10">
-        <v>0.3665637414822545</v>
+        <v>0.3629126934346762</v>
       </c>
       <c r="Q10">
-        <v>146.8931149338805</v>
+        <v>152.3917196694614</v>
       </c>
       <c r="R10">
-        <v>146.8931149338805</v>
+        <v>1371.525477025152</v>
       </c>
       <c r="S10">
-        <v>0.03441341410057157</v>
+        <v>0.03369668388959939</v>
       </c>
       <c r="T10">
-        <v>0.03441341410057157</v>
+        <v>0.0336966838895994</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.58296203432592</v>
+        <v>2.660570666666667</v>
       </c>
       <c r="H11">
-        <v>2.58296203432592</v>
+        <v>7.981712</v>
       </c>
       <c r="I11">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="J11">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.12021163273267</v>
+        <v>2.281801333333334</v>
       </c>
       <c r="N11">
-        <v>2.12021163273267</v>
+        <v>6.845404</v>
       </c>
       <c r="O11">
-        <v>0.01366612220840314</v>
+        <v>0.01445750718642485</v>
       </c>
       <c r="P11">
-        <v>0.01366612220840314</v>
+        <v>0.01445750718642485</v>
       </c>
       <c r="Q11">
-        <v>5.476426152084658</v>
+        <v>6.070893694627556</v>
       </c>
       <c r="R11">
-        <v>5.476426152084658</v>
+        <v>54.638043251648</v>
       </c>
       <c r="S11">
-        <v>0.001282990840297177</v>
+        <v>0.001342389115359669</v>
       </c>
       <c r="T11">
-        <v>0.001282990840297177</v>
+        <v>0.001342389115359669</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.21565310663088</v>
+        <v>5.265451333333334</v>
       </c>
       <c r="H12">
-        <v>5.21565310663088</v>
+        <v>15.796354</v>
       </c>
       <c r="I12">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="J12">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.24596085381</v>
+        <v>49.22961066666667</v>
       </c>
       <c r="N12">
-        <v>48.24596085381</v>
+        <v>147.688832</v>
       </c>
       <c r="O12">
-        <v>0.310976124699498</v>
+        <v>0.31191911390397</v>
       </c>
       <c r="P12">
-        <v>0.310976124699498</v>
+        <v>0.31191911390397</v>
       </c>
       <c r="Q12">
-        <v>251.6341956095659</v>
+        <v>259.2161191242809</v>
       </c>
       <c r="R12">
-        <v>251.6341956095659</v>
+        <v>2332.945072118528</v>
       </c>
       <c r="S12">
-        <v>0.05895165188153356</v>
+        <v>0.05731757371178241</v>
       </c>
       <c r="T12">
-        <v>0.05895165188153356</v>
+        <v>0.05731757371178241</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.21565310663088</v>
+        <v>5.265451333333334</v>
       </c>
       <c r="H13">
-        <v>5.21565310663088</v>
+        <v>15.796354</v>
       </c>
       <c r="I13">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="J13">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.76626323450665</v>
+        <v>3.113353333333333</v>
       </c>
       <c r="N13">
-        <v>2.76626323450665</v>
+        <v>9.340059999999999</v>
       </c>
       <c r="O13">
-        <v>0.01783033865098457</v>
+        <v>0.01972622573797533</v>
       </c>
       <c r="P13">
-        <v>0.01783033865098457</v>
+        <v>0.01972622573797533</v>
       </c>
       <c r="Q13">
-        <v>14.4278694328134</v>
+        <v>16.39321046013778</v>
       </c>
       <c r="R13">
-        <v>14.4278694328134</v>
+        <v>147.53889414124</v>
       </c>
       <c r="S13">
-        <v>0.003380092018634611</v>
+        <v>0.003624848069232956</v>
       </c>
       <c r="T13">
-        <v>0.003380092018634611</v>
+        <v>0.003624848069232957</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.21565310663088</v>
+        <v>5.265451333333334</v>
       </c>
       <c r="H14">
-        <v>5.21565310663088</v>
+        <v>15.796354</v>
       </c>
       <c r="I14">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="J14">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.1411567013993</v>
+        <v>45.92553333333333</v>
       </c>
       <c r="N14">
-        <v>45.1411567013993</v>
+        <v>137.7766</v>
       </c>
       <c r="O14">
-        <v>0.2909636729588599</v>
+        <v>0.2909844597369537</v>
       </c>
       <c r="P14">
-        <v>0.2909636729588599</v>
+        <v>0.2909844597369537</v>
       </c>
       <c r="Q14">
-        <v>235.4406141865646</v>
+        <v>241.8186607240445</v>
       </c>
       <c r="R14">
-        <v>235.4406141865646</v>
+        <v>2176.3679465164</v>
       </c>
       <c r="S14">
-        <v>0.055157897330601</v>
+        <v>0.05347066747916838</v>
       </c>
       <c r="T14">
-        <v>0.055157897330601</v>
+        <v>0.05347066747916838</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.21565310663088</v>
+        <v>5.265451333333334</v>
       </c>
       <c r="H15">
-        <v>5.21565310663088</v>
+        <v>15.796354</v>
       </c>
       <c r="I15">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="J15">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>56.8700247939244</v>
+        <v>57.27783200000001</v>
       </c>
       <c r="N15">
-        <v>56.8700247939244</v>
+        <v>171.833496</v>
       </c>
       <c r="O15">
-        <v>0.3665637414822545</v>
+        <v>0.3629126934346761</v>
       </c>
       <c r="P15">
-        <v>0.3665637414822545</v>
+        <v>0.3629126934346762</v>
       </c>
       <c r="Q15">
-        <v>296.614321490607</v>
+        <v>301.5936368748427</v>
       </c>
       <c r="R15">
-        <v>296.614321490607</v>
+        <v>2714.342731873584</v>
       </c>
       <c r="S15">
-        <v>0.06948937993595497</v>
+        <v>0.06668804228293491</v>
       </c>
       <c r="T15">
-        <v>0.06948937993595497</v>
+        <v>0.06668804228293491</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.21565310663088</v>
+        <v>5.265451333333334</v>
       </c>
       <c r="H16">
-        <v>5.21565310663088</v>
+        <v>15.796354</v>
       </c>
       <c r="I16">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="J16">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.12021163273267</v>
+        <v>2.281801333333334</v>
       </c>
       <c r="N16">
-        <v>2.12021163273267</v>
+        <v>6.845404</v>
       </c>
       <c r="O16">
-        <v>0.01366612220840314</v>
+        <v>0.01445750718642485</v>
       </c>
       <c r="P16">
-        <v>0.01366612220840314</v>
+        <v>0.01445750718642485</v>
       </c>
       <c r="Q16">
-        <v>11.05828838897708</v>
+        <v>12.01471387300178</v>
       </c>
       <c r="R16">
-        <v>11.05828838897708</v>
+        <v>108.132424857016</v>
       </c>
       <c r="S16">
-        <v>0.002590682740608404</v>
+        <v>0.002656679879199873</v>
       </c>
       <c r="T16">
-        <v>0.002590682740608404</v>
+        <v>0.002656679879199873</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.6777260783941</v>
+        <v>13.66654266666667</v>
       </c>
       <c r="H17">
-        <v>12.6777260783941</v>
+        <v>40.999628</v>
       </c>
       <c r="I17">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="J17">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>48.24596085381</v>
+        <v>49.22961066666667</v>
       </c>
       <c r="N17">
-        <v>48.24596085381</v>
+        <v>147.688832</v>
       </c>
       <c r="O17">
-        <v>0.310976124699498</v>
+        <v>0.31191911390397</v>
       </c>
       <c r="P17">
-        <v>0.310976124699498</v>
+        <v>0.31191911390397</v>
       </c>
       <c r="Q17">
-        <v>611.6490760935279</v>
+        <v>672.7985746393884</v>
       </c>
       <c r="R17">
-        <v>611.6490760935279</v>
+        <v>6055.187171754495</v>
       </c>
       <c r="S17">
-        <v>0.143294210551074</v>
+        <v>0.1487684563188225</v>
       </c>
       <c r="T17">
-        <v>0.143294210551074</v>
+        <v>0.1487684563188226</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.6777260783941</v>
+        <v>13.66654266666667</v>
       </c>
       <c r="H18">
-        <v>12.6777260783941</v>
+        <v>40.999628</v>
       </c>
       <c r="I18">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="J18">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.76626323450665</v>
+        <v>3.113353333333333</v>
       </c>
       <c r="N18">
-        <v>2.76626323450665</v>
+        <v>9.340059999999999</v>
       </c>
       <c r="O18">
-        <v>0.01783033865098457</v>
+        <v>0.01972622573797533</v>
       </c>
       <c r="P18">
-        <v>0.01783033865098457</v>
+        <v>0.01972622573797533</v>
       </c>
       <c r="Q18">
-        <v>35.06992754780777</v>
+        <v>42.54877616640889</v>
       </c>
       <c r="R18">
-        <v>35.06992754780777</v>
+        <v>382.93898549768</v>
       </c>
       <c r="S18">
-        <v>0.008216014342966245</v>
+        <v>0.009408337037462534</v>
       </c>
       <c r="T18">
-        <v>0.008216014342966245</v>
+        <v>0.009408337037462536</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.6777260783941</v>
+        <v>13.66654266666667</v>
       </c>
       <c r="H19">
-        <v>12.6777260783941</v>
+        <v>40.999628</v>
       </c>
       <c r="I19">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="J19">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>45.1411567013993</v>
+        <v>45.92553333333333</v>
       </c>
       <c r="N19">
-        <v>45.1411567013993</v>
+        <v>137.7766</v>
       </c>
       <c r="O19">
-        <v>0.2909636729588599</v>
+        <v>0.2909844597369537</v>
       </c>
       <c r="P19">
-        <v>0.2909636729588599</v>
+        <v>0.2909844597369537</v>
       </c>
       <c r="Q19">
-        <v>572.2872195222044</v>
+        <v>627.6432607894222</v>
       </c>
       <c r="R19">
-        <v>572.2872195222044</v>
+        <v>5648.7893471048</v>
       </c>
       <c r="S19">
-        <v>0.1340727036712861</v>
+        <v>0.1387837646305977</v>
       </c>
       <c r="T19">
-        <v>0.1340727036712861</v>
+        <v>0.1387837646305977</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.6777260783941</v>
+        <v>13.66654266666667</v>
       </c>
       <c r="H20">
-        <v>12.6777260783941</v>
+        <v>40.999628</v>
       </c>
       <c r="I20">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="J20">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>56.8700247939244</v>
+        <v>57.27783200000001</v>
       </c>
       <c r="N20">
-        <v>56.8700247939244</v>
+        <v>171.833496</v>
       </c>
       <c r="O20">
-        <v>0.3665637414822545</v>
+        <v>0.3629126934346761</v>
       </c>
       <c r="P20">
-        <v>0.3665637414822545</v>
+        <v>0.3629126934346762</v>
       </c>
       <c r="Q20">
-        <v>720.9825964088544</v>
+        <v>782.7899348821654</v>
       </c>
       <c r="R20">
-        <v>720.9825964088544</v>
+        <v>7045.109413939489</v>
       </c>
       <c r="S20">
-        <v>0.1689083430540043</v>
+        <v>0.1730896209118004</v>
       </c>
       <c r="T20">
-        <v>0.1689083430540043</v>
+        <v>0.1730896209118004</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.6777260783941</v>
+        <v>13.66654266666667</v>
       </c>
       <c r="H21">
-        <v>12.6777260783941</v>
+        <v>40.999628</v>
       </c>
       <c r="I21">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="J21">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.12021163273267</v>
+        <v>2.281801333333334</v>
       </c>
       <c r="N21">
-        <v>2.12021163273267</v>
+        <v>6.845404</v>
       </c>
       <c r="O21">
-        <v>0.01366612220840314</v>
+        <v>0.01445750718642485</v>
       </c>
       <c r="P21">
-        <v>0.01366612220840314</v>
+        <v>0.01445750718642485</v>
       </c>
       <c r="Q21">
-        <v>26.8794623080095</v>
+        <v>31.18433527885689</v>
       </c>
       <c r="R21">
-        <v>26.8794623080095</v>
+        <v>280.659017509712</v>
       </c>
       <c r="S21">
-        <v>0.006297191448507328</v>
+        <v>0.006895444781895853</v>
       </c>
       <c r="T21">
-        <v>0.006297191448507328</v>
+        <v>0.006895444781895854</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.222705509419881</v>
+        <v>0.2464976666666667</v>
       </c>
       <c r="H22">
-        <v>0.222705509419881</v>
+        <v>0.7394930000000001</v>
       </c>
       <c r="I22">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296967</v>
       </c>
       <c r="J22">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296965</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>48.24596085381</v>
+        <v>49.22961066666667</v>
       </c>
       <c r="N22">
-        <v>48.24596085381</v>
+        <v>147.688832</v>
       </c>
       <c r="O22">
-        <v>0.310976124699498</v>
+        <v>0.31191911390397</v>
       </c>
       <c r="P22">
-        <v>0.310976124699498</v>
+        <v>0.31191911390397</v>
       </c>
       <c r="Q22">
-        <v>10.74464128939939</v>
+        <v>12.13498416024178</v>
       </c>
       <c r="R22">
-        <v>10.74464128939939</v>
+        <v>109.214857442176</v>
       </c>
       <c r="S22">
-        <v>0.002517203003153938</v>
+        <v>0.002683273908450464</v>
       </c>
       <c r="T22">
-        <v>0.002517203003153938</v>
+        <v>0.002683273908450463</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.222705509419881</v>
+        <v>0.2464976666666667</v>
       </c>
       <c r="H23">
-        <v>0.222705509419881</v>
+        <v>0.7394930000000001</v>
       </c>
       <c r="I23">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296967</v>
       </c>
       <c r="J23">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296965</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.76626323450665</v>
+        <v>3.113353333333333</v>
       </c>
       <c r="N23">
-        <v>2.76626323450665</v>
+        <v>9.340059999999999</v>
       </c>
       <c r="O23">
-        <v>0.01783033865098457</v>
+        <v>0.01972622573797533</v>
       </c>
       <c r="P23">
-        <v>0.01783033865098457</v>
+        <v>0.01972622573797533</v>
       </c>
       <c r="Q23">
-        <v>0.6160620628302912</v>
+        <v>0.7674343321755556</v>
       </c>
       <c r="R23">
-        <v>0.6160620628302912</v>
+        <v>6.90690898958</v>
       </c>
       <c r="S23">
-        <v>0.0001443280639080603</v>
+        <v>0.000169694207489987</v>
       </c>
       <c r="T23">
-        <v>0.0001443280639080603</v>
+        <v>0.000169694207489987</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.222705509419881</v>
+        <v>0.2464976666666667</v>
       </c>
       <c r="H24">
-        <v>0.222705509419881</v>
+        <v>0.7394930000000001</v>
       </c>
       <c r="I24">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296967</v>
       </c>
       <c r="J24">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296965</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>45.1411567013993</v>
+        <v>45.92553333333333</v>
       </c>
       <c r="N24">
-        <v>45.1411567013993</v>
+        <v>137.7766</v>
       </c>
       <c r="O24">
-        <v>0.2909636729588599</v>
+        <v>0.2909844597369537</v>
       </c>
       <c r="P24">
-        <v>0.2909636729588599</v>
+        <v>0.2909844597369537</v>
       </c>
       <c r="Q24">
-        <v>10.05318429898781</v>
+        <v>11.32053680708889</v>
       </c>
       <c r="R24">
-        <v>10.05318429898781</v>
+        <v>101.8848312638</v>
       </c>
       <c r="S24">
-        <v>0.002355211777394449</v>
+        <v>0.002503184235183174</v>
       </c>
       <c r="T24">
-        <v>0.002355211777394449</v>
+        <v>0.002503184235183174</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.222705509419881</v>
+        <v>0.2464976666666667</v>
       </c>
       <c r="H25">
-        <v>0.222705509419881</v>
+        <v>0.7394930000000001</v>
       </c>
       <c r="I25">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296967</v>
       </c>
       <c r="J25">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296965</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>56.8700247939244</v>
+        <v>57.27783200000001</v>
       </c>
       <c r="N25">
-        <v>56.8700247939244</v>
+        <v>171.833496</v>
       </c>
       <c r="O25">
-        <v>0.3665637414822545</v>
+        <v>0.3629126934346761</v>
       </c>
       <c r="P25">
-        <v>0.3665637414822545</v>
+        <v>0.3629126934346762</v>
       </c>
       <c r="Q25">
-        <v>12.6652678424522</v>
+        <v>14.11885193972534</v>
       </c>
       <c r="R25">
-        <v>12.6652678424522</v>
+        <v>127.069667457528</v>
       </c>
       <c r="S25">
-        <v>0.002967158175882833</v>
+        <v>0.003121944497567881</v>
       </c>
       <c r="T25">
-        <v>0.002967158175882833</v>
+        <v>0.003121944497567881</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.222705509419881</v>
+        <v>0.2464976666666667</v>
       </c>
       <c r="H26">
-        <v>0.222705509419881</v>
+        <v>0.7394930000000001</v>
       </c>
       <c r="I26">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296967</v>
       </c>
       <c r="J26">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296965</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.12021163273267</v>
+        <v>2.281801333333334</v>
       </c>
       <c r="N26">
-        <v>2.12021163273267</v>
+        <v>6.845404</v>
       </c>
       <c r="O26">
-        <v>0.01366612220840314</v>
+        <v>0.01445750718642485</v>
       </c>
       <c r="P26">
-        <v>0.01366612220840314</v>
+        <v>0.01445750718642485</v>
       </c>
       <c r="Q26">
-        <v>0.4721828117456869</v>
+        <v>0.5624587044635557</v>
       </c>
       <c r="R26">
-        <v>0.4721828117456869</v>
+        <v>5.062128340172</v>
       </c>
       <c r="S26">
-        <v>0.0001106207233680812</v>
+        <v>0.0001243702296054616</v>
       </c>
       <c r="T26">
-        <v>0.0001106207233680812</v>
+        <v>0.0001243702296054616</v>
       </c>
     </row>
   </sheetData>
